--- a/spec/support/blankRoSpreadsheet.xlsx
+++ b/spec/support/blankRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/Desktop/tmp/compare/redone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A847F8-1B79-E945-AB72-C18C9EA6B8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C634A-52C8-384D-85B9-EA611D61B46E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1100" windowWidth="17980" windowHeight="20620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="123">
   <si>
     <t>Example</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">Des Moines, IA </t>
+  </si>
+  <si>
+    <t>Number of Hearing Days Without Rooms in Date Range</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -512,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -749,19 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -942,11 +932,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,16 +1019,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1026,9 +1044,6 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1044,26 +1059,26 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,10 +1091,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2274,9 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -2287,24 +2308,24 @@
     <col min="7" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1">
+    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2350,7 +2371,7 @@
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1">
+    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2523,7 +2544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1">
+    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2696,7 +2717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1">
+    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1">
+    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -2930,7 +2951,7 @@
       <c r="BD5" s="22"/>
       <c r="BE5" s="22"/>
     </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1">
+    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -2991,7 +3012,7 @@
       <c r="BD6" s="22"/>
       <c r="BE6" s="22"/>
     </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1">
+    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3052,7 +3073,7 @@
       <c r="BD7" s="22"/>
       <c r="BE7" s="22"/>
     </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1">
+    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3113,7 +3134,7 @@
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
     </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1">
+    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3172,7 +3193,7 @@
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
     </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1">
+    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3231,7 +3252,7 @@
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
     </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1">
+    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3290,7 +3311,7 @@
       <c r="BD11" s="31"/>
       <c r="BE11" s="35"/>
     </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1">
+    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3349,7 +3370,7 @@
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
     </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1">
+    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="36"/>
@@ -3408,7 +3429,7 @@
       <c r="BD13" s="36"/>
       <c r="BE13" s="37"/>
     </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1">
+    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
@@ -3467,7 +3488,7 @@
       <c r="BD14" s="38"/>
       <c r="BE14" s="38"/>
     </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1">
+    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="36"/>
@@ -3526,7 +3547,7 @@
       <c r="BD15" s="36"/>
       <c r="BE15" s="37"/>
     </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1">
+    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
@@ -3585,7 +3606,7 @@
       <c r="BD16" s="38"/>
       <c r="BE16" s="38"/>
     </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1">
+    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="36"/>
@@ -3644,7 +3665,7 @@
       <c r="BD17" s="36"/>
       <c r="BE17" s="37"/>
     </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1">
+    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
@@ -3703,7 +3724,7 @@
       <c r="BD18" s="38"/>
       <c r="BE18" s="38"/>
     </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1">
+    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -3762,7 +3783,7 @@
       <c r="BD19" s="36"/>
       <c r="BE19" s="37"/>
     </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1">
+    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="38"/>
@@ -3821,7 +3842,7 @@
       <c r="BD20" s="38"/>
       <c r="BE20" s="38"/>
     </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1">
+    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="36"/>
@@ -3880,7 +3901,7 @@
       <c r="BD21" s="36"/>
       <c r="BE21" s="37"/>
     </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1">
+    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="38"/>
@@ -3939,7 +3960,7 @@
       <c r="BD22" s="38"/>
       <c r="BE22" s="38"/>
     </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1">
+    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="36"/>
@@ -3998,7 +4019,7 @@
       <c r="BD23" s="36"/>
       <c r="BE23" s="37"/>
     </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1">
+    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="38"/>
@@ -4057,7 +4078,7 @@
       <c r="BD24" s="38"/>
       <c r="BE24" s="38"/>
     </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1">
+    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="36"/>
@@ -4116,7 +4137,7 @@
       <c r="BD25" s="36"/>
       <c r="BE25" s="37"/>
     </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1">
+    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="38"/>
@@ -4175,7 +4196,7 @@
       <c r="BD26" s="38"/>
       <c r="BE26" s="38"/>
     </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1">
+    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="36"/>
@@ -4234,7 +4255,7 @@
       <c r="BD27" s="36"/>
       <c r="BE27" s="37"/>
     </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1">
+    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="38"/>
@@ -4293,7 +4314,7 @@
       <c r="BD28" s="38"/>
       <c r="BE28" s="38"/>
     </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1">
+    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="36"/>
@@ -4352,7 +4373,7 @@
       <c r="BD29" s="36"/>
       <c r="BE29" s="37"/>
     </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1">
+    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="38"/>
@@ -4411,7 +4432,7 @@
       <c r="BD30" s="38"/>
       <c r="BE30" s="38"/>
     </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1">
+    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="36"/>
@@ -4470,7 +4491,7 @@
       <c r="BD31" s="36"/>
       <c r="BE31" s="37"/>
     </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1">
+    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="38"/>
@@ -4529,7 +4550,7 @@
       <c r="BD32" s="38"/>
       <c r="BE32" s="38"/>
     </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1">
+    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="36"/>
@@ -4588,7 +4609,7 @@
       <c r="BD33" s="36"/>
       <c r="BE33" s="37"/>
     </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1">
+    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="38"/>
@@ -4647,7 +4668,7 @@
       <c r="BD34" s="38"/>
       <c r="BE34" s="38"/>
     </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1">
+    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="36"/>
@@ -4706,7 +4727,7 @@
       <c r="BD35" s="36"/>
       <c r="BE35" s="37"/>
     </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1">
+    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="38"/>
@@ -4765,7 +4786,7 @@
       <c r="BD36" s="38"/>
       <c r="BE36" s="38"/>
     </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1">
+    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="36"/>
@@ -4824,7 +4845,7 @@
       <c r="BD37" s="36"/>
       <c r="BE37" s="37"/>
     </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1">
+    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="38"/>
@@ -4883,7 +4904,7 @@
       <c r="BD38" s="38"/>
       <c r="BE38" s="38"/>
     </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1">
+    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="36"/>
@@ -4942,7 +4963,7 @@
       <c r="BD39" s="36"/>
       <c r="BE39" s="37"/>
     </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1">
+    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="38"/>
@@ -5001,7 +5022,7 @@
       <c r="BD40" s="38"/>
       <c r="BE40" s="38"/>
     </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1">
+    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="36"/>
@@ -5060,7 +5081,7 @@
       <c r="BD41" s="36"/>
       <c r="BE41" s="37"/>
     </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1">
+    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="38"/>
@@ -5119,7 +5140,7 @@
       <c r="BD42" s="38"/>
       <c r="BE42" s="38"/>
     </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1">
+    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="36"/>
@@ -5178,7 +5199,7 @@
       <c r="BD43" s="36"/>
       <c r="BE43" s="37"/>
     </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1">
+    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="38"/>
@@ -5237,7 +5258,7 @@
       <c r="BD44" s="38"/>
       <c r="BE44" s="38"/>
     </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1">
+    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="36"/>
@@ -5296,7 +5317,7 @@
       <c r="BD45" s="36"/>
       <c r="BE45" s="37"/>
     </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1">
+    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="38"/>
@@ -5355,7 +5376,7 @@
       <c r="BD46" s="38"/>
       <c r="BE46" s="38"/>
     </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1">
+    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="36"/>
@@ -5414,7 +5435,7 @@
       <c r="BD47" s="36"/>
       <c r="BE47" s="37"/>
     </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1">
+    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="38"/>
@@ -5473,7 +5494,7 @@
       <c r="BD48" s="38"/>
       <c r="BE48" s="38"/>
     </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1">
+    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="36"/>
@@ -5532,7 +5553,7 @@
       <c r="BD49" s="36"/>
       <c r="BE49" s="37"/>
     </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1">
+    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
       <c r="C50" s="41"/>
@@ -5611,23 +5632,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="48" style="42" customWidth="1"/>
     <col min="3" max="256" width="8.6640625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="43"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="s">
         <v>116</v>
@@ -5636,7 +5657,7 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +5668,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="17" t="s">
         <v>117</v>
@@ -5656,42 +5677,42 @@
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="22"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="22"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="22"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="25"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -5714,50 +5735,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="50" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="50" customWidth="1"/>
     <col min="3" max="3" width="11" style="50" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="50" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="23" style="77" customWidth="1"/>
     <col min="6" max="256" width="11" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-    </row>
-    <row r="2" spans="1:14" ht="47" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="55" t="s">
+        <v>122</v>
+      </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -5768,20 +5791,22 @@
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1">
-      <c r="A3" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="59">
         <v>10</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="75">
+        <v>50</v>
+      </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -5792,18 +5817,20 @@
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="64">
-        <v>0</v>
-      </c>
-      <c r="E4" s="43"/>
+      <c r="D4" s="63">
+        <v>0</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -5814,18 +5841,20 @@
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="64">
-        <v>0</v>
-      </c>
-      <c r="E5" s="43"/>
+      <c r="D5" s="63">
+        <v>0</v>
+      </c>
+      <c r="E5" s="63">
+        <v>0</v>
+      </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -5836,18 +5865,20 @@
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
+      <c r="B6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64">
-        <v>0</v>
-      </c>
-      <c r="E6" s="43"/>
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0</v>
+      </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -5858,18 +5889,20 @@
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="62" t="s">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="64">
-        <v>0</v>
-      </c>
-      <c r="E7" s="43"/>
+      <c r="D7" s="63">
+        <v>0</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0</v>
+      </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
@@ -5880,18 +5913,20 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="62" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="64">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43"/>
+      <c r="D8" s="63">
+        <v>0</v>
+      </c>
+      <c r="E8" s="63">
+        <v>0</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -5902,18 +5937,20 @@
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="64">
-        <v>0</v>
-      </c>
-      <c r="E9" s="43"/>
+      <c r="D9" s="63">
+        <v>0</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5924,18 +5961,20 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="64">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43"/>
+      <c r="D10" s="63">
+        <v>0</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -5946,18 +5985,20 @@
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="64">
-        <v>0</v>
-      </c>
-      <c r="E11" s="43"/>
+      <c r="D11" s="63">
+        <v>0</v>
+      </c>
+      <c r="E11" s="63">
+        <v>0</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -5968,18 +6009,20 @@
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43"/>
+      <c r="D12" s="63">
+        <v>0</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -5990,18 +6033,20 @@
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="64">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43"/>
+      <c r="D13" s="63">
+        <v>0</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -6012,18 +6057,20 @@
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="64">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43"/>
+      <c r="D14" s="63">
+        <v>0</v>
+      </c>
+      <c r="E14" s="63">
+        <v>0</v>
+      </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -6034,18 +6081,20 @@
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="64">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43"/>
+      <c r="D15" s="63">
+        <v>0</v>
+      </c>
+      <c r="E15" s="63">
+        <v>0</v>
+      </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -6056,18 +6105,20 @@
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="64">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43"/>
+      <c r="D16" s="63">
+        <v>0</v>
+      </c>
+      <c r="E16" s="63">
+        <v>0</v>
+      </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -6078,18 +6129,20 @@
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="64">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43"/>
+      <c r="D17" s="63">
+        <v>0</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -6100,18 +6153,20 @@
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="64">
-        <v>0</v>
-      </c>
-      <c r="E18" s="43"/>
+      <c r="D18" s="63">
+        <v>0</v>
+      </c>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
@@ -6122,18 +6177,20 @@
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="64">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43"/>
+      <c r="D19" s="63">
+        <v>0</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0</v>
+      </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -6144,18 +6201,20 @@
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="64">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43"/>
+      <c r="D20" s="63">
+        <v>0</v>
+      </c>
+      <c r="E20" s="63">
+        <v>0</v>
+      </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -6166,18 +6225,20 @@
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="64">
-        <v>0</v>
-      </c>
-      <c r="E21" s="43"/>
+      <c r="D21" s="63">
+        <v>0</v>
+      </c>
+      <c r="E21" s="63">
+        <v>0</v>
+      </c>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -6188,18 +6249,20 @@
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="64">
-        <v>0</v>
-      </c>
-      <c r="E22" s="43"/>
+      <c r="D22" s="63">
+        <v>0</v>
+      </c>
+      <c r="E22" s="63">
+        <v>0</v>
+      </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -6210,18 +6273,20 @@
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="66"/>
+      <c r="B23" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="64">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43"/>
+      <c r="D23" s="63">
+        <v>0</v>
+      </c>
+      <c r="E23" s="63">
+        <v>0</v>
+      </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -6232,18 +6297,20 @@
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="64">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43"/>
+      <c r="D24" s="63">
+        <v>0</v>
+      </c>
+      <c r="E24" s="63">
+        <v>0</v>
+      </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -6254,18 +6321,20 @@
       <c r="M24" s="44"/>
       <c r="N24" s="44"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="64">
-        <v>0</v>
-      </c>
-      <c r="E25" s="43"/>
+      <c r="D25" s="63">
+        <v>0</v>
+      </c>
+      <c r="E25" s="63">
+        <v>0</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -6276,18 +6345,20 @@
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="64">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43"/>
+      <c r="D26" s="63">
+        <v>0</v>
+      </c>
+      <c r="E26" s="63">
+        <v>0</v>
+      </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -6298,18 +6369,20 @@
       <c r="M26" s="44"/>
       <c r="N26" s="44"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="64">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43"/>
+      <c r="D27" s="63">
+        <v>0</v>
+      </c>
+      <c r="E27" s="63">
+        <v>0</v>
+      </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
@@ -6320,18 +6393,20 @@
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="64">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43"/>
+      <c r="D28" s="63">
+        <v>0</v>
+      </c>
+      <c r="E28" s="63">
+        <v>0</v>
+      </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -6342,18 +6417,20 @@
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="64">
-        <v>0</v>
-      </c>
-      <c r="E29" s="43"/>
+      <c r="D29" s="63">
+        <v>0</v>
+      </c>
+      <c r="E29" s="63">
+        <v>0</v>
+      </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -6364,18 +6441,20 @@
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="64">
-        <v>0</v>
-      </c>
-      <c r="E30" s="43"/>
+      <c r="D30" s="63">
+        <v>0</v>
+      </c>
+      <c r="E30" s="63">
+        <v>0</v>
+      </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -6386,18 +6465,20 @@
       <c r="M30" s="44"/>
       <c r="N30" s="44"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="66"/>
+      <c r="B31" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="64">
-        <v>0</v>
-      </c>
-      <c r="E31" s="43"/>
+      <c r="D31" s="63">
+        <v>0</v>
+      </c>
+      <c r="E31" s="63">
+        <v>0</v>
+      </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -6408,18 +6489,20 @@
       <c r="M31" s="44"/>
       <c r="N31" s="44"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="64">
-        <v>0</v>
-      </c>
-      <c r="E32" s="43"/>
+      <c r="D32" s="63">
+        <v>0</v>
+      </c>
+      <c r="E32" s="63">
+        <v>0</v>
+      </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -6430,18 +6513,20 @@
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="64">
-        <v>0</v>
-      </c>
-      <c r="E33" s="43"/>
+      <c r="D33" s="63">
+        <v>0</v>
+      </c>
+      <c r="E33" s="63">
+        <v>0</v>
+      </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -6452,18 +6537,20 @@
       <c r="M33" s="44"/>
       <c r="N33" s="44"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="66"/>
+      <c r="B34" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="64">
-        <v>0</v>
-      </c>
-      <c r="E34" s="43"/>
+      <c r="D34" s="63">
+        <v>0</v>
+      </c>
+      <c r="E34" s="63">
+        <v>0</v>
+      </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
@@ -6474,18 +6561,20 @@
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="66"/>
+      <c r="B35" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="64">
-        <v>0</v>
-      </c>
-      <c r="E35" s="43"/>
+      <c r="D35" s="63">
+        <v>0</v>
+      </c>
+      <c r="E35" s="63">
+        <v>0</v>
+      </c>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
@@ -6496,18 +6585,20 @@
       <c r="M35" s="44"/>
       <c r="N35" s="44"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="66"/>
+      <c r="B36" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="64">
-        <v>0</v>
-      </c>
-      <c r="E36" s="43"/>
+      <c r="D36" s="63">
+        <v>0</v>
+      </c>
+      <c r="E36" s="63">
+        <v>0</v>
+      </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -6518,18 +6609,20 @@
       <c r="M36" s="44"/>
       <c r="N36" s="44"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="67"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="66"/>
+      <c r="B37" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="64">
-        <v>0</v>
-      </c>
-      <c r="E37" s="43"/>
+      <c r="D37" s="63">
+        <v>0</v>
+      </c>
+      <c r="E37" s="63">
+        <v>0</v>
+      </c>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -6540,18 +6633,20 @@
       <c r="M37" s="44"/>
       <c r="N37" s="44"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="67"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="66"/>
+      <c r="B38" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="64">
-        <v>0</v>
-      </c>
-      <c r="E38" s="43"/>
+      <c r="D38" s="63">
+        <v>0</v>
+      </c>
+      <c r="E38" s="63">
+        <v>0</v>
+      </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -6562,18 +6657,20 @@
       <c r="M38" s="44"/>
       <c r="N38" s="44"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="67"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="66"/>
+      <c r="B39" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="64">
-        <v>0</v>
-      </c>
-      <c r="E39" s="43"/>
+      <c r="D39" s="63">
+        <v>0</v>
+      </c>
+      <c r="E39" s="63">
+        <v>0</v>
+      </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
@@ -6584,18 +6681,20 @@
       <c r="M39" s="44"/>
       <c r="N39" s="44"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="67"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="66"/>
+      <c r="B40" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="64">
-        <v>0</v>
-      </c>
-      <c r="E40" s="43"/>
+      <c r="D40" s="63">
+        <v>0</v>
+      </c>
+      <c r="E40" s="63">
+        <v>0</v>
+      </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
@@ -6606,18 +6705,20 @@
       <c r="M40" s="44"/>
       <c r="N40" s="44"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="66"/>
+      <c r="B41" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="64">
-        <v>0</v>
-      </c>
-      <c r="E41" s="43"/>
+      <c r="D41" s="63">
+        <v>0</v>
+      </c>
+      <c r="E41" s="63">
+        <v>0</v>
+      </c>
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
@@ -6628,18 +6729,20 @@
       <c r="M41" s="44"/>
       <c r="N41" s="44"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="67"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="66"/>
+      <c r="B42" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="64">
-        <v>0</v>
-      </c>
-      <c r="E42" s="43"/>
+      <c r="D42" s="63">
+        <v>0</v>
+      </c>
+      <c r="E42" s="63">
+        <v>0</v>
+      </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
@@ -6650,18 +6753,20 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="67"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="66"/>
+      <c r="B43" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="64">
-        <v>0</v>
-      </c>
-      <c r="E43" s="43"/>
+      <c r="D43" s="63">
+        <v>0</v>
+      </c>
+      <c r="E43" s="63">
+        <v>0</v>
+      </c>
       <c r="F43" s="44"/>
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
@@ -6672,18 +6777,20 @@
       <c r="M43" s="44"/>
       <c r="N43" s="44"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="67"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="66"/>
+      <c r="B44" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="64">
-        <v>0</v>
-      </c>
-      <c r="E44" s="43"/>
+      <c r="D44" s="63">
+        <v>0</v>
+      </c>
+      <c r="E44" s="63">
+        <v>0</v>
+      </c>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
@@ -6694,18 +6801,20 @@
       <c r="M44" s="44"/>
       <c r="N44" s="44"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="67"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="66"/>
+      <c r="B45" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="64">
-        <v>0</v>
-      </c>
-      <c r="E45" s="43"/>
+      <c r="D45" s="63">
+        <v>0</v>
+      </c>
+      <c r="E45" s="63">
+        <v>0</v>
+      </c>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
@@ -6716,18 +6825,20 @@
       <c r="M45" s="44"/>
       <c r="N45" s="44"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="66"/>
+      <c r="B46" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="64">
-        <v>0</v>
-      </c>
-      <c r="E46" s="43"/>
+      <c r="D46" s="63">
+        <v>0</v>
+      </c>
+      <c r="E46" s="63">
+        <v>0</v>
+      </c>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
@@ -6738,18 +6849,20 @@
       <c r="M46" s="44"/>
       <c r="N46" s="44"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="67"/>
-      <c r="B47" s="62" t="s">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="66"/>
+      <c r="B47" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="64">
-        <v>0</v>
-      </c>
-      <c r="E47" s="43"/>
+      <c r="D47" s="63">
+        <v>0</v>
+      </c>
+      <c r="E47" s="63">
+        <v>0</v>
+      </c>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
@@ -6760,18 +6873,20 @@
       <c r="M47" s="44"/>
       <c r="N47" s="44"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="67"/>
-      <c r="B48" s="62" t="s">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="66"/>
+      <c r="B48" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="64">
-        <v>0</v>
-      </c>
-      <c r="E48" s="43"/>
+      <c r="D48" s="63">
+        <v>0</v>
+      </c>
+      <c r="E48" s="63">
+        <v>0</v>
+      </c>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
@@ -6782,18 +6897,20 @@
       <c r="M48" s="44"/>
       <c r="N48" s="44"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="67"/>
-      <c r="B49" s="62" t="s">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="66"/>
+      <c r="B49" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="64">
-        <v>0</v>
-      </c>
-      <c r="E49" s="43"/>
+      <c r="D49" s="63">
+        <v>0</v>
+      </c>
+      <c r="E49" s="63">
+        <v>0</v>
+      </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
@@ -6804,18 +6921,20 @@
       <c r="M49" s="44"/>
       <c r="N49" s="44"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="67"/>
-      <c r="B50" s="62" t="s">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="66"/>
+      <c r="B50" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="64">
-        <v>0</v>
-      </c>
-      <c r="E50" s="43"/>
+      <c r="D50" s="63">
+        <v>0</v>
+      </c>
+      <c r="E50" s="63">
+        <v>0</v>
+      </c>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
@@ -6826,18 +6945,20 @@
       <c r="M50" s="44"/>
       <c r="N50" s="44"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="67"/>
-      <c r="B51" s="62" t="s">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="66"/>
+      <c r="B51" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="64">
-        <v>0</v>
-      </c>
-      <c r="E51" s="43"/>
+      <c r="D51" s="63">
+        <v>0</v>
+      </c>
+      <c r="E51" s="63">
+        <v>0</v>
+      </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
@@ -6848,18 +6969,20 @@
       <c r="M51" s="44"/>
       <c r="N51" s="44"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="67"/>
-      <c r="B52" s="62" t="s">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="66"/>
+      <c r="B52" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="64">
-        <v>0</v>
-      </c>
-      <c r="E52" s="43"/>
+      <c r="D52" s="63">
+        <v>0</v>
+      </c>
+      <c r="E52" s="63">
+        <v>0</v>
+      </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
@@ -6870,18 +6993,20 @@
       <c r="M52" s="44"/>
       <c r="N52" s="44"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="62" t="s">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="66"/>
+      <c r="B53" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="64">
-        <v>0</v>
-      </c>
-      <c r="E53" s="43"/>
+      <c r="D53" s="63">
+        <v>0</v>
+      </c>
+      <c r="E53" s="63">
+        <v>0</v>
+      </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
@@ -6892,18 +7017,20 @@
       <c r="M53" s="44"/>
       <c r="N53" s="44"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="62" t="s">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="66"/>
+      <c r="B54" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="64">
-        <v>0</v>
-      </c>
-      <c r="E54" s="43"/>
+      <c r="D54" s="63">
+        <v>0</v>
+      </c>
+      <c r="E54" s="63">
+        <v>0</v>
+      </c>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
@@ -6914,18 +7041,20 @@
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="62" t="s">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="66"/>
+      <c r="B55" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="64">
-        <v>0</v>
-      </c>
-      <c r="E55" s="43"/>
+      <c r="D55" s="63">
+        <v>0</v>
+      </c>
+      <c r="E55" s="63">
+        <v>0</v>
+      </c>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
@@ -6936,18 +7065,20 @@
       <c r="M55" s="44"/>
       <c r="N55" s="44"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="62" t="s">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="66"/>
+      <c r="B56" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="64">
-        <v>0</v>
-      </c>
-      <c r="E56" s="43"/>
+      <c r="D56" s="63">
+        <v>0</v>
+      </c>
+      <c r="E56" s="63">
+        <v>0</v>
+      </c>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
@@ -6958,18 +7089,20 @@
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="67"/>
-      <c r="B57" s="62" t="s">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="66"/>
+      <c r="B57" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="64">
-        <v>0</v>
-      </c>
-      <c r="E57" s="43"/>
+      <c r="D57" s="63">
+        <v>0</v>
+      </c>
+      <c r="E57" s="63">
+        <v>0</v>
+      </c>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
@@ -6980,18 +7113,20 @@
       <c r="M57" s="44"/>
       <c r="N57" s="44"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="62" t="s">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="66"/>
+      <c r="B58" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="64">
-        <v>0</v>
-      </c>
-      <c r="E58" s="43"/>
+      <c r="D58" s="63">
+        <v>0</v>
+      </c>
+      <c r="E58" s="63">
+        <v>0</v>
+      </c>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
@@ -7002,12 +7137,12 @@
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="44"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="43"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="76"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
@@ -7018,12 +7153,12 @@
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="67"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="66"/>
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="43"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
@@ -7034,12 +7169,12 @@
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="67"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="66"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="43"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="76"/>
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
@@ -7050,12 +7185,12 @@
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="67"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="66"/>
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="43"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
@@ -7066,12 +7201,12 @@
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="67"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="66"/>
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="43"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
@@ -7082,12 +7217,12 @@
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="67"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="66"/>
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="43"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
@@ -7098,12 +7233,12 @@
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="67"/>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="66"/>
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="43"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
       <c r="H65" s="44"/>
@@ -7114,12 +7249,12 @@
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="67"/>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="66"/>
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="43"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
@@ -7130,12 +7265,12 @@
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="67"/>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="66"/>
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="43"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="76"/>
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
@@ -7146,12 +7281,12 @@
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="67"/>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="66"/>
       <c r="B68" s="43"/>
       <c r="C68" s="44"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="43"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
@@ -7162,12 +7297,12 @@
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A69" s="67"/>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="66"/>
       <c r="B69" s="43"/>
       <c r="C69" s="44"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="43"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="76"/>
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
@@ -7178,12 +7313,12 @@
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="67"/>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="66"/>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="43"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
@@ -7194,12 +7329,12 @@
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="67"/>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="66"/>
       <c r="B71" s="43"/>
       <c r="C71" s="44"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="43"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
@@ -7210,12 +7345,12 @@
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="67"/>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="66"/>
       <c r="B72" s="43"/>
       <c r="C72" s="44"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="43"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="76"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
@@ -7226,12 +7361,12 @@
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="67"/>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="66"/>
       <c r="B73" s="43"/>
       <c r="C73" s="44"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="43"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
@@ -7242,12 +7377,12 @@
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="67"/>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="66"/>
       <c r="B74" s="43"/>
       <c r="C74" s="44"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="43"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="76"/>
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
@@ -7258,12 +7393,12 @@
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="67"/>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="66"/>
       <c r="B75" s="43"/>
       <c r="C75" s="44"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="43"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
@@ -7274,12 +7409,12 @@
       <c r="M75" s="44"/>
       <c r="N75" s="44"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="67"/>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="66"/>
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="43"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
@@ -7290,12 +7425,12 @@
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="67"/>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="66"/>
       <c r="B77" s="43"/>
       <c r="C77" s="44"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="43"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="76"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
@@ -7306,12 +7441,12 @@
       <c r="M77" s="44"/>
       <c r="N77" s="44"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="67"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="66"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="43"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="76"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
@@ -7322,12 +7457,12 @@
       <c r="M78" s="44"/>
       <c r="N78" s="44"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="67"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="66"/>
       <c r="B79" s="43"/>
       <c r="C79" s="44"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="43"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="76"/>
       <c r="F79" s="44"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
@@ -7338,12 +7473,12 @@
       <c r="M79" s="44"/>
       <c r="N79" s="44"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="67"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="66"/>
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="43"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="76"/>
       <c r="F80" s="44"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
@@ -7354,12 +7489,12 @@
       <c r="M80" s="44"/>
       <c r="N80" s="44"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="67"/>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="66"/>
       <c r="B81" s="43"/>
       <c r="C81" s="44"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="43"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76"/>
       <c r="F81" s="44"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
@@ -7370,12 +7505,12 @@
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="67"/>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="66"/>
       <c r="B82" s="43"/>
       <c r="C82" s="44"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="43"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="76"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
@@ -7386,12 +7521,12 @@
       <c r="M82" s="44"/>
       <c r="N82" s="44"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="67"/>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="66"/>
       <c r="B83" s="43"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="43"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="76"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
@@ -7402,12 +7537,12 @@
       <c r="M83" s="44"/>
       <c r="N83" s="44"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="67"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="66"/>
       <c r="B84" s="43"/>
       <c r="C84" s="44"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="43"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="76"/>
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
       <c r="H84" s="44"/>
@@ -7418,12 +7553,12 @@
       <c r="M84" s="44"/>
       <c r="N84" s="44"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="67"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="66"/>
       <c r="B85" s="43"/>
       <c r="C85" s="44"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="43"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="76"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
       <c r="H85" s="44"/>
@@ -7434,12 +7569,12 @@
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="67"/>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="66"/>
       <c r="B86" s="43"/>
       <c r="C86" s="44"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="43"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="76"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
       <c r="H86" s="44"/>
@@ -7450,12 +7585,12 @@
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A87" s="67"/>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="66"/>
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="43"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="76"/>
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
@@ -7466,12 +7601,12 @@
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A88" s="67"/>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="66"/>
       <c r="B88" s="43"/>
       <c r="C88" s="44"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="43"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="76"/>
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
@@ -7482,12 +7617,12 @@
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A89" s="67"/>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="66"/>
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="43"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
@@ -7498,12 +7633,12 @@
       <c r="M89" s="44"/>
       <c r="N89" s="44"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="67"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="66"/>
       <c r="B90" s="43"/>
       <c r="C90" s="44"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="43"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="76"/>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
@@ -7514,12 +7649,12 @@
       <c r="M90" s="44"/>
       <c r="N90" s="44"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="67"/>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="66"/>
       <c r="B91" s="43"/>
       <c r="C91" s="44"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="43"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="76"/>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
@@ -7530,12 +7665,12 @@
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="67"/>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="66"/>
       <c r="B92" s="43"/>
       <c r="C92" s="44"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="43"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="76"/>
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
@@ -7546,12 +7681,12 @@
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="67"/>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="66"/>
       <c r="B93" s="43"/>
       <c r="C93" s="44"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="43"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="76"/>
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
@@ -7562,12 +7697,12 @@
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="67"/>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="66"/>
       <c r="B94" s="43"/>
       <c r="C94" s="44"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="43"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="76"/>
       <c r="F94" s="44"/>
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
@@ -7578,12 +7713,12 @@
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="67"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="66"/>
       <c r="B95" s="43"/>
       <c r="C95" s="44"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="43"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
@@ -7594,12 +7729,12 @@
       <c r="M95" s="44"/>
       <c r="N95" s="44"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="67"/>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="66"/>
       <c r="B96" s="43"/>
       <c r="C96" s="44"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="43"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="76"/>
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
@@ -7610,12 +7745,12 @@
       <c r="M96" s="44"/>
       <c r="N96" s="44"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="70"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="69"/>
       <c r="B97" s="43"/>
       <c r="C97" s="44"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="43"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="76"/>
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
@@ -7628,7 +7763,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/spec/support/blankRoSpreadsheet.xlsx
+++ b/spec/support/blankRoSpreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navaloaner_2/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BEC7E2-416B-9043-9A02-7906A83709C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343935C3-8630-BA43-8A05-7C43C18D35B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="460" windowWidth="23040" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="124">
   <si>
     <t>Example</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
+  </si>
+  <si>
+    <t>NVHQ</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -410,16 +413,19 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -431,38 +437,55 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="11"/>
       <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -515,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -934,11 +957,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,12 +1082,20 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,15 +1117,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2274,7 +2313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2:BF4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2284,27 +2325,29 @@
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="254" width="11" style="1" customWidth="1"/>
+    <col min="7" max="57" width="11" style="1" customWidth="1"/>
+    <col min="58" max="58" width="11" style="46" customWidth="1"/>
+    <col min="59" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2349,8 +2392,9 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF1" s="5"/>
+    </row>
+    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2522,8 +2566,11 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF2" s="84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2695,8 +2742,11 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF3" s="85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2868,370 +2918,379 @@
       <c r="BE4" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="78"/>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="78"/>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="78"/>
-      <c r="BD5" s="78"/>
-      <c r="BE5" s="79"/>
-    </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="70"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+    </row>
+    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22">
         <v>43540</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="82"/>
-      <c r="BE6" s="82"/>
-    </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+    </row>
+    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="23">
         <v>43576</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="79"/>
-    </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="75"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+    </row>
+    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="25">
         <v>43604</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="82"/>
-      <c r="BE8" s="82"/>
-    </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="76"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+    </row>
+    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78"/>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="79"/>
-    </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="71"/>
+    </row>
+    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
-    </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+    </row>
+    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="30"/>
       <c r="C11" s="27"/>
@@ -3289,8 +3348,9 @@
       <c r="BC11" s="27"/>
       <c r="BD11" s="27"/>
       <c r="BE11" s="31"/>
-    </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF11" s="31"/>
+    </row>
+    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -3348,8 +3408,9 @@
       <c r="BC12" s="29"/>
       <c r="BD12" s="29"/>
       <c r="BE12" s="29"/>
-    </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF12" s="29"/>
+    </row>
+    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="30"/>
       <c r="C13" s="32"/>
@@ -3407,8 +3468,9 @@
       <c r="BC13" s="32"/>
       <c r="BD13" s="32"/>
       <c r="BE13" s="33"/>
-    </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF13" s="33"/>
+    </row>
+    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="28"/>
       <c r="C14" s="34"/>
@@ -3466,8 +3528,9 @@
       <c r="BC14" s="34"/>
       <c r="BD14" s="34"/>
       <c r="BE14" s="34"/>
-    </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF14" s="34"/>
+    </row>
+    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="30"/>
       <c r="C15" s="32"/>
@@ -3525,8 +3588,9 @@
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33"/>
-    </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF15" s="33"/>
+    </row>
+    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="28"/>
       <c r="C16" s="34"/>
@@ -3584,8 +3648,9 @@
       <c r="BC16" s="34"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="34"/>
-    </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF16" s="34"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="30"/>
       <c r="C17" s="32"/>
@@ -3643,8 +3708,9 @@
       <c r="BC17" s="32"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="33"/>
-    </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF17" s="33"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="28"/>
       <c r="C18" s="34"/>
@@ -3702,8 +3768,9 @@
       <c r="BC18" s="34"/>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
-    </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF18" s="34"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="30"/>
       <c r="C19" s="32"/>
@@ -3761,8 +3828,9 @@
       <c r="BC19" s="32"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="33"/>
-    </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF19" s="33"/>
+    </row>
+    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="28"/>
       <c r="C20" s="34"/>
@@ -3820,8 +3888,9 @@
       <c r="BC20" s="34"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="34"/>
-    </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF20" s="34"/>
+    </row>
+    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="30"/>
       <c r="C21" s="32"/>
@@ -3879,8 +3948,9 @@
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="33"/>
-    </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF21" s="33"/>
+    </row>
+    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="28"/>
       <c r="C22" s="34"/>
@@ -3938,8 +4008,9 @@
       <c r="BC22" s="34"/>
       <c r="BD22" s="34"/>
       <c r="BE22" s="34"/>
-    </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="34"/>
+    </row>
+    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="30"/>
       <c r="C23" s="32"/>
@@ -3997,8 +4068,9 @@
       <c r="BC23" s="32"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="33"/>
-    </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF23" s="33"/>
+    </row>
+    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="28"/>
       <c r="C24" s="34"/>
@@ -4056,8 +4128,9 @@
       <c r="BC24" s="34"/>
       <c r="BD24" s="34"/>
       <c r="BE24" s="34"/>
-    </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="34"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="30"/>
       <c r="C25" s="32"/>
@@ -4115,8 +4188,9 @@
       <c r="BC25" s="32"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="33"/>
-    </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF25" s="33"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="28"/>
       <c r="C26" s="34"/>
@@ -4174,8 +4248,9 @@
       <c r="BC26" s="34"/>
       <c r="BD26" s="34"/>
       <c r="BE26" s="34"/>
-    </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="34"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
@@ -4233,8 +4308,9 @@
       <c r="BC27" s="32"/>
       <c r="BD27" s="32"/>
       <c r="BE27" s="33"/>
-    </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF27" s="33"/>
+    </row>
+    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="28"/>
       <c r="C28" s="34"/>
@@ -4292,8 +4368,9 @@
       <c r="BC28" s="34"/>
       <c r="BD28" s="34"/>
       <c r="BE28" s="34"/>
-    </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="34"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="30"/>
       <c r="C29" s="32"/>
@@ -4351,8 +4428,9 @@
       <c r="BC29" s="32"/>
       <c r="BD29" s="32"/>
       <c r="BE29" s="33"/>
-    </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF29" s="33"/>
+    </row>
+    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="28"/>
       <c r="C30" s="34"/>
@@ -4410,8 +4488,9 @@
       <c r="BC30" s="34"/>
       <c r="BD30" s="34"/>
       <c r="BE30" s="34"/>
-    </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="34"/>
+    </row>
+    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
@@ -4469,8 +4548,9 @@
       <c r="BC31" s="32"/>
       <c r="BD31" s="32"/>
       <c r="BE31" s="33"/>
-    </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF31" s="33"/>
+    </row>
+    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="28"/>
       <c r="C32" s="34"/>
@@ -4528,8 +4608,9 @@
       <c r="BC32" s="34"/>
       <c r="BD32" s="34"/>
       <c r="BE32" s="34"/>
-    </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="34"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
@@ -4587,8 +4668,9 @@
       <c r="BC33" s="32"/>
       <c r="BD33" s="32"/>
       <c r="BE33" s="33"/>
-    </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF33" s="33"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="28"/>
       <c r="C34" s="34"/>
@@ -4646,8 +4728,9 @@
       <c r="BC34" s="34"/>
       <c r="BD34" s="34"/>
       <c r="BE34" s="34"/>
-    </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="34"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="30"/>
       <c r="C35" s="32"/>
@@ -4705,8 +4788,9 @@
       <c r="BC35" s="32"/>
       <c r="BD35" s="32"/>
       <c r="BE35" s="33"/>
-    </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF35" s="33"/>
+    </row>
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="28"/>
       <c r="C36" s="34"/>
@@ -4764,8 +4848,9 @@
       <c r="BC36" s="34"/>
       <c r="BD36" s="34"/>
       <c r="BE36" s="34"/>
-    </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="34"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="30"/>
       <c r="C37" s="32"/>
@@ -4823,8 +4908,9 @@
       <c r="BC37" s="32"/>
       <c r="BD37" s="32"/>
       <c r="BE37" s="33"/>
-    </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF37" s="33"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="28"/>
       <c r="C38" s="34"/>
@@ -4882,8 +4968,9 @@
       <c r="BC38" s="34"/>
       <c r="BD38" s="34"/>
       <c r="BE38" s="34"/>
-    </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="34"/>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="30"/>
       <c r="C39" s="32"/>
@@ -4941,8 +5028,9 @@
       <c r="BC39" s="32"/>
       <c r="BD39" s="32"/>
       <c r="BE39" s="33"/>
-    </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF39" s="33"/>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="28"/>
       <c r="C40" s="34"/>
@@ -5000,8 +5088,9 @@
       <c r="BC40" s="34"/>
       <c r="BD40" s="34"/>
       <c r="BE40" s="34"/>
-    </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="34"/>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="30"/>
       <c r="C41" s="32"/>
@@ -5059,8 +5148,9 @@
       <c r="BC41" s="32"/>
       <c r="BD41" s="32"/>
       <c r="BE41" s="33"/>
-    </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF41" s="33"/>
+    </row>
+    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="28"/>
       <c r="C42" s="34"/>
@@ -5118,8 +5208,9 @@
       <c r="BC42" s="34"/>
       <c r="BD42" s="34"/>
       <c r="BE42" s="34"/>
-    </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="34"/>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="30"/>
       <c r="C43" s="32"/>
@@ -5177,8 +5268,9 @@
       <c r="BC43" s="32"/>
       <c r="BD43" s="32"/>
       <c r="BE43" s="33"/>
-    </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF43" s="33"/>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="28"/>
       <c r="C44" s="34"/>
@@ -5236,8 +5328,9 @@
       <c r="BC44" s="34"/>
       <c r="BD44" s="34"/>
       <c r="BE44" s="34"/>
-    </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="34"/>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="30"/>
       <c r="C45" s="32"/>
@@ -5295,8 +5388,9 @@
       <c r="BC45" s="32"/>
       <c r="BD45" s="32"/>
       <c r="BE45" s="33"/>
-    </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF45" s="33"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="28"/>
       <c r="C46" s="34"/>
@@ -5354,8 +5448,9 @@
       <c r="BC46" s="34"/>
       <c r="BD46" s="34"/>
       <c r="BE46" s="34"/>
-    </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="34"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="30"/>
       <c r="C47" s="32"/>
@@ -5413,8 +5508,9 @@
       <c r="BC47" s="32"/>
       <c r="BD47" s="32"/>
       <c r="BE47" s="33"/>
-    </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF47" s="33"/>
+    </row>
+    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="28"/>
       <c r="C48" s="34"/>
@@ -5472,8 +5568,9 @@
       <c r="BC48" s="34"/>
       <c r="BD48" s="34"/>
       <c r="BE48" s="34"/>
-    </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="34"/>
+    </row>
+    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="30"/>
       <c r="C49" s="32"/>
@@ -5531,8 +5628,9 @@
       <c r="BC49" s="32"/>
       <c r="BD49" s="32"/>
       <c r="BE49" s="33"/>
-    </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF49" s="33"/>
+    </row>
+    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
@@ -5590,11 +5688,13 @@
       <c r="BC50" s="37"/>
       <c r="BD50" s="37"/>
       <c r="BE50" s="37"/>
+      <c r="BF50" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5619,10 +5719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -5714,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5724,18 +5824,18 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23" style="67" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
@@ -5783,7 +5883,7 @@
       <c r="D3" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="65">
         <v>50</v>
       </c>
       <c r="F3" s="40"/>
@@ -7118,10 +7218,18 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="67"/>
+      <c r="B59" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="87">
+        <v>0</v>
+      </c>
+      <c r="E59" s="87">
+        <v>0</v>
+      </c>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -7134,10 +7242,9 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="62"/>
-      <c r="B60" s="39"/>
       <c r="C60" s="40"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="67"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -7152,8 +7259,8 @@
       <c r="A61" s="62"/>
       <c r="B61" s="39"/>
       <c r="C61" s="40"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="67"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -7168,8 +7275,8 @@
       <c r="A62" s="62"/>
       <c r="B62" s="39"/>
       <c r="C62" s="40"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="67"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -7184,8 +7291,8 @@
       <c r="A63" s="62"/>
       <c r="B63" s="39"/>
       <c r="C63" s="40"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="67"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -7200,8 +7307,8 @@
       <c r="A64" s="62"/>
       <c r="B64" s="39"/>
       <c r="C64" s="40"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="67"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -7216,8 +7323,8 @@
       <c r="A65" s="62"/>
       <c r="B65" s="39"/>
       <c r="C65" s="40"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="67"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -7233,7 +7340,7 @@
       <c r="B66" s="39"/>
       <c r="C66" s="40"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="67"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -7249,7 +7356,7 @@
       <c r="B67" s="39"/>
       <c r="C67" s="40"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="67"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -7265,7 +7372,7 @@
       <c r="B68" s="39"/>
       <c r="C68" s="40"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="67"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -7281,7 +7388,7 @@
       <c r="B69" s="39"/>
       <c r="C69" s="40"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="67"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
@@ -7297,7 +7404,7 @@
       <c r="B70" s="39"/>
       <c r="C70" s="40"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -7313,7 +7420,7 @@
       <c r="B71" s="39"/>
       <c r="C71" s="40"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="67"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -7329,7 +7436,7 @@
       <c r="B72" s="39"/>
       <c r="C72" s="40"/>
       <c r="D72" s="59"/>
-      <c r="E72" s="67"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -7345,7 +7452,7 @@
       <c r="B73" s="39"/>
       <c r="C73" s="40"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="67"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -7361,7 +7468,7 @@
       <c r="B74" s="39"/>
       <c r="C74" s="40"/>
       <c r="D74" s="59"/>
-      <c r="E74" s="67"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="40"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
@@ -7377,7 +7484,7 @@
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="67"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -7393,7 +7500,7 @@
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
       <c r="D76" s="59"/>
-      <c r="E76" s="67"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="40"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
@@ -7409,7 +7516,7 @@
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
       <c r="D77" s="59"/>
-      <c r="E77" s="67"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
@@ -7425,7 +7532,7 @@
       <c r="B78" s="39"/>
       <c r="C78" s="40"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="67"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="40"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -7441,7 +7548,7 @@
       <c r="B79" s="39"/>
       <c r="C79" s="40"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="67"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="40"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -7457,7 +7564,7 @@
       <c r="B80" s="39"/>
       <c r="C80" s="40"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="40"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -7473,7 +7580,7 @@
       <c r="B81" s="39"/>
       <c r="C81" s="40"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="67"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -7489,7 +7596,7 @@
       <c r="B82" s="39"/>
       <c r="C82" s="40"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="67"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
@@ -7505,7 +7612,7 @@
       <c r="B83" s="39"/>
       <c r="C83" s="40"/>
       <c r="D83" s="59"/>
-      <c r="E83" s="67"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
@@ -7521,7 +7628,7 @@
       <c r="B84" s="39"/>
       <c r="C84" s="40"/>
       <c r="D84" s="59"/>
-      <c r="E84" s="67"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
@@ -7537,7 +7644,7 @@
       <c r="B85" s="39"/>
       <c r="C85" s="40"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="67"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
@@ -7553,7 +7660,7 @@
       <c r="B86" s="39"/>
       <c r="C86" s="40"/>
       <c r="D86" s="59"/>
-      <c r="E86" s="67"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -7569,7 +7676,7 @@
       <c r="B87" s="39"/>
       <c r="C87" s="40"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="67"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
@@ -7585,7 +7692,7 @@
       <c r="B88" s="39"/>
       <c r="C88" s="40"/>
       <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
@@ -7601,7 +7708,7 @@
       <c r="B89" s="39"/>
       <c r="C89" s="40"/>
       <c r="D89" s="59"/>
-      <c r="E89" s="67"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
@@ -7617,7 +7724,7 @@
       <c r="B90" s="39"/>
       <c r="C90" s="40"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="67"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
@@ -7633,7 +7740,7 @@
       <c r="B91" s="39"/>
       <c r="C91" s="40"/>
       <c r="D91" s="59"/>
-      <c r="E91" s="67"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
@@ -7649,7 +7756,7 @@
       <c r="B92" s="39"/>
       <c r="C92" s="40"/>
       <c r="D92" s="59"/>
-      <c r="E92" s="67"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -7665,7 +7772,7 @@
       <c r="B93" s="39"/>
       <c r="C93" s="40"/>
       <c r="D93" s="59"/>
-      <c r="E93" s="67"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
@@ -7681,7 +7788,7 @@
       <c r="B94" s="39"/>
       <c r="C94" s="40"/>
       <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
@@ -7697,7 +7804,7 @@
       <c r="B95" s="39"/>
       <c r="C95" s="40"/>
       <c r="D95" s="59"/>
-      <c r="E95" s="67"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
@@ -7713,7 +7820,7 @@
       <c r="B96" s="39"/>
       <c r="C96" s="40"/>
       <c r="D96" s="59"/>
-      <c r="E96" s="67"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -7725,11 +7832,11 @@
       <c r="N96" s="40"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+      <c r="A97" s="64"/>
       <c r="B97" s="39"/>
       <c r="C97" s="40"/>
       <c r="D97" s="59"/>
-      <c r="E97" s="67"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>

--- a/spec/support/blankRoSpreadsheet.xlsx
+++ b/spec/support/blankRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343935C3-8630-BA43-8A05-7C43C18D35B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638E8D1-49BB-1244-9F04-0B6D2DF3FF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="460" windowWidth="23040" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="1160" windowWidth="23040" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -387,13 +387,28 @@
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Number of Hearing Days Without Rooms in Date Range</t>
-  </si>
-  <si>
-    <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
-  </si>
-  <si>
     <t>NVHQ</t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -487,8 +502,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,8 +589,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -829,56 +911,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -934,34 +966,6 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -970,11 +974,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,38 +1216,19 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1096,6 +1240,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,19 +1256,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2335,19 +2517,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2566,8 +2748,8 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="84" t="s">
-        <v>123</v>
+      <c r="BF2" s="68" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2742,7 +2924,7 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="85" t="s">
+      <c r="BF3" s="69" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2918,7 +3100,7 @@
       <c r="BE4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="BF4" s="86" t="s">
+      <c r="BF4" s="70" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2927,368 +3109,368 @@
       <c r="B5" s="20">
         <v>43497</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
     </row>
     <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22">
         <v>43540</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
     </row>
     <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="23">
         <v>43576</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
     </row>
     <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="25">
         <v>43604</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
     </row>
     <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="71"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
     </row>
     <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
     </row>
     <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
@@ -5719,10 +5901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -5812,10 +5994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5824,21 +6006,21 @@
     <col min="2" max="2" width="23.5" style="46" customWidth="1"/>
     <col min="3" max="3" width="11" style="46" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23" style="67" customWidth="1"/>
+    <col min="5" max="5" width="23" style="58" customWidth="1"/>
     <col min="6" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -5847,22 +6029,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
@@ -5870,25 +6046,29 @@
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="55">
-        <v>10</v>
-      </c>
-      <c r="E3" s="65">
-        <v>50</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>127</v>
+      </c>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -5896,23 +6076,31 @@
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0</v>
-      </c>
-      <c r="E4" s="59">
-        <v>0</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="92">
+        <v>10</v>
+      </c>
+      <c r="E4" s="93">
+        <v>50</v>
+      </c>
+      <c r="F4" s="93">
+        <v>8</v>
+      </c>
+      <c r="G4" s="93">
+        <v>60</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>128</v>
+      </c>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -5921,22 +6109,28 @@
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="59">
-        <v>0</v>
-      </c>
-      <c r="E5" s="59">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -5945,22 +6139,28 @@
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="59">
-        <v>0</v>
-      </c>
-      <c r="E6" s="59">
-        <v>0</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -5969,22 +6169,28 @@
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="59">
-        <v>0</v>
-      </c>
-      <c r="E7" s="59">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -5993,22 +6199,28 @@
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0</v>
-      </c>
-      <c r="E8" s="59">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
@@ -6017,22 +6229,28 @@
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="59">
-        <v>0</v>
-      </c>
-      <c r="E9" s="59">
-        <v>0</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -6041,22 +6259,28 @@
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="59">
-        <v>0</v>
-      </c>
-      <c r="E10" s="59">
-        <v>0</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -6065,22 +6289,28 @@
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="59">
-        <v>0</v>
-      </c>
-      <c r="E11" s="59">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -6089,22 +6319,28 @@
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="59">
-        <v>0</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -6113,22 +6349,28 @@
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="59">
-        <v>0</v>
-      </c>
-      <c r="E13" s="59">
-        <v>0</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -6137,22 +6379,28 @@
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="59">
-        <v>0</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -6161,22 +6409,28 @@
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="59">
-        <v>0</v>
-      </c>
-      <c r="E15" s="59">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -6185,22 +6439,28 @@
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="59">
-        <v>0</v>
-      </c>
-      <c r="E16" s="59">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -6209,22 +6469,28 @@
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="59">
-        <v>0</v>
-      </c>
-      <c r="E17" s="59">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="51">
+        <v>0</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51">
+        <v>0</v>
+      </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -6233,22 +6499,28 @@
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="59">
-        <v>0</v>
-      </c>
-      <c r="E18" s="59">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0</v>
+      </c>
+      <c r="E18" s="51">
+        <v>0</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0</v>
+      </c>
+      <c r="G18" s="51">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0</v>
+      </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -6257,22 +6529,28 @@
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0</v>
-      </c>
-      <c r="E19" s="59">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0</v>
+      </c>
+      <c r="E19" s="51">
+        <v>0</v>
+      </c>
+      <c r="F19" s="51">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0</v>
+      </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
@@ -6281,22 +6559,28 @@
       <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="59">
-        <v>0</v>
-      </c>
-      <c r="E20" s="59">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0</v>
+      </c>
+      <c r="E20" s="51">
+        <v>0</v>
+      </c>
+      <c r="F20" s="51">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0</v>
+      </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
@@ -6305,22 +6589,28 @@
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="59">
-        <v>0</v>
-      </c>
-      <c r="E21" s="59">
-        <v>0</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="51">
+        <v>0</v>
+      </c>
+      <c r="F21" s="51">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
+        <v>0</v>
+      </c>
+      <c r="H21" s="51">
+        <v>0</v>
+      </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
@@ -6329,22 +6619,28 @@
       <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="59">
-        <v>0</v>
-      </c>
-      <c r="E22" s="59">
-        <v>0</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="51">
+        <v>0</v>
+      </c>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
@@ -6353,22 +6649,28 @@
       <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="59">
-        <v>0</v>
-      </c>
-      <c r="E23" s="59">
-        <v>0</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
+        <v>0</v>
+      </c>
+      <c r="F23" s="51">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51">
+        <v>0</v>
+      </c>
+      <c r="H23" s="51">
+        <v>0</v>
+      </c>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
@@ -6377,22 +6679,28 @@
       <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="59">
-        <v>0</v>
-      </c>
-      <c r="E24" s="59">
-        <v>0</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0</v>
+      </c>
+      <c r="F24" s="51">
+        <v>0</v>
+      </c>
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
+        <v>0</v>
+      </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
@@ -6401,22 +6709,28 @@
       <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="59">
-        <v>0</v>
-      </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="51">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51">
+        <v>0</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0</v>
+      </c>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
@@ -6425,22 +6739,28 @@
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="59">
-        <v>0</v>
-      </c>
-      <c r="E26" s="59">
-        <v>0</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <v>0</v>
+      </c>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
@@ -6449,22 +6769,28 @@
       <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="59">
-        <v>0</v>
-      </c>
-      <c r="E27" s="59">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="51">
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <v>0</v>
+      </c>
+      <c r="F27" s="51">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
+        <v>0</v>
+      </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
@@ -6473,22 +6799,28 @@
       <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="59">
-        <v>0</v>
-      </c>
-      <c r="E28" s="59">
-        <v>0</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="51">
+        <v>0</v>
+      </c>
+      <c r="E28" s="51">
+        <v>0</v>
+      </c>
+      <c r="F28" s="51">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
+        <v>0</v>
+      </c>
+      <c r="H28" s="51">
+        <v>0</v>
+      </c>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
@@ -6497,22 +6829,28 @@
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="59">
-        <v>0</v>
-      </c>
-      <c r="E29" s="59">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="51">
+        <v>0</v>
+      </c>
+      <c r="E29" s="51">
+        <v>0</v>
+      </c>
+      <c r="F29" s="51">
+        <v>0</v>
+      </c>
+      <c r="G29" s="51">
+        <v>0</v>
+      </c>
+      <c r="H29" s="51">
+        <v>0</v>
+      </c>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
@@ -6521,22 +6859,28 @@
       <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="59">
-        <v>0</v>
-      </c>
-      <c r="E30" s="59">
-        <v>0</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="51">
+        <v>0</v>
+      </c>
+      <c r="E30" s="51">
+        <v>0</v>
+      </c>
+      <c r="F30" s="51">
+        <v>0</v>
+      </c>
+      <c r="G30" s="51">
+        <v>0</v>
+      </c>
+      <c r="H30" s="51">
+        <v>0</v>
+      </c>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
@@ -6545,22 +6889,28 @@
       <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="59">
-        <v>0</v>
-      </c>
-      <c r="E31" s="59">
-        <v>0</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="51">
+        <v>0</v>
+      </c>
+      <c r="E31" s="51">
+        <v>0</v>
+      </c>
+      <c r="F31" s="51">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51">
+        <v>0</v>
+      </c>
+      <c r="H31" s="51">
+        <v>0</v>
+      </c>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
@@ -6569,22 +6919,28 @@
       <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="59">
-        <v>0</v>
-      </c>
-      <c r="E32" s="59">
-        <v>0</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="51">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51">
+        <v>0</v>
+      </c>
+      <c r="F32" s="51">
+        <v>0</v>
+      </c>
+      <c r="G32" s="51">
+        <v>0</v>
+      </c>
+      <c r="H32" s="51">
+        <v>0</v>
+      </c>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
@@ -6593,22 +6949,28 @@
       <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="59">
-        <v>0</v>
-      </c>
-      <c r="E33" s="59">
-        <v>0</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="51">
+        <v>0</v>
+      </c>
+      <c r="E33" s="51">
+        <v>0</v>
+      </c>
+      <c r="F33" s="51">
+        <v>0</v>
+      </c>
+      <c r="G33" s="51">
+        <v>0</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0</v>
+      </c>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -6617,22 +6979,28 @@
       <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="59">
-        <v>0</v>
-      </c>
-      <c r="E34" s="59">
-        <v>0</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="51">
+        <v>0</v>
+      </c>
+      <c r="E34" s="51">
+        <v>0</v>
+      </c>
+      <c r="F34" s="51">
+        <v>0</v>
+      </c>
+      <c r="G34" s="51">
+        <v>0</v>
+      </c>
+      <c r="H34" s="51">
+        <v>0</v>
+      </c>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
@@ -6641,22 +7009,28 @@
       <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="59">
-        <v>0</v>
-      </c>
-      <c r="E35" s="59">
-        <v>0</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="51">
+        <v>0</v>
+      </c>
+      <c r="E35" s="51">
+        <v>0</v>
+      </c>
+      <c r="F35" s="51">
+        <v>0</v>
+      </c>
+      <c r="G35" s="51">
+        <v>0</v>
+      </c>
+      <c r="H35" s="51">
+        <v>0</v>
+      </c>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
@@ -6665,22 +7039,28 @@
       <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="59">
-        <v>0</v>
-      </c>
-      <c r="E36" s="59">
-        <v>0</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="51">
+        <v>0</v>
+      </c>
+      <c r="E36" s="51">
+        <v>0</v>
+      </c>
+      <c r="F36" s="51">
+        <v>0</v>
+      </c>
+      <c r="G36" s="51">
+        <v>0</v>
+      </c>
+      <c r="H36" s="51">
+        <v>0</v>
+      </c>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
@@ -6689,22 +7069,28 @@
       <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="59">
-        <v>0</v>
-      </c>
-      <c r="E37" s="59">
-        <v>0</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="51">
+        <v>0</v>
+      </c>
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
+        <v>0</v>
+      </c>
+      <c r="G37" s="51">
+        <v>0</v>
+      </c>
+      <c r="H37" s="51">
+        <v>0</v>
+      </c>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -6713,22 +7099,28 @@
       <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="59">
-        <v>0</v>
-      </c>
-      <c r="E38" s="59">
-        <v>0</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="51">
+        <v>0</v>
+      </c>
+      <c r="E38" s="51">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51">
+        <v>0</v>
+      </c>
+      <c r="G38" s="51">
+        <v>0</v>
+      </c>
+      <c r="H38" s="51">
+        <v>0</v>
+      </c>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -6737,22 +7129,28 @@
       <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="59">
-        <v>0</v>
-      </c>
-      <c r="E39" s="59">
-        <v>0</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="51">
+        <v>0</v>
+      </c>
+      <c r="E39" s="51">
+        <v>0</v>
+      </c>
+      <c r="F39" s="51">
+        <v>0</v>
+      </c>
+      <c r="G39" s="51">
+        <v>0</v>
+      </c>
+      <c r="H39" s="51">
+        <v>0</v>
+      </c>
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
@@ -6761,22 +7159,28 @@
       <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="59">
-        <v>0</v>
-      </c>
-      <c r="E40" s="59">
-        <v>0</v>
-      </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="51">
+        <v>0</v>
+      </c>
+      <c r="E40" s="51">
+        <v>0</v>
+      </c>
+      <c r="F40" s="51">
+        <v>0</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0</v>
+      </c>
+      <c r="H40" s="51">
+        <v>0</v>
+      </c>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
@@ -6785,22 +7189,28 @@
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="59">
-        <v>0</v>
-      </c>
-      <c r="E41" s="59">
-        <v>0</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="51">
+        <v>0</v>
+      </c>
+      <c r="E41" s="51">
+        <v>0</v>
+      </c>
+      <c r="F41" s="51">
+        <v>0</v>
+      </c>
+      <c r="G41" s="51">
+        <v>0</v>
+      </c>
+      <c r="H41" s="51">
+        <v>0</v>
+      </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
@@ -6809,22 +7219,28 @@
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="59">
-        <v>0</v>
-      </c>
-      <c r="E42" s="59">
-        <v>0</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="51">
+        <v>0</v>
+      </c>
+      <c r="E42" s="51">
+        <v>0</v>
+      </c>
+      <c r="F42" s="51">
+        <v>0</v>
+      </c>
+      <c r="G42" s="51">
+        <v>0</v>
+      </c>
+      <c r="H42" s="51">
+        <v>0</v>
+      </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -6833,22 +7249,28 @@
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="59">
-        <v>0</v>
-      </c>
-      <c r="E43" s="59">
-        <v>0</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="51">
+        <v>0</v>
+      </c>
+      <c r="E43" s="51">
+        <v>0</v>
+      </c>
+      <c r="F43" s="51">
+        <v>0</v>
+      </c>
+      <c r="G43" s="51">
+        <v>0</v>
+      </c>
+      <c r="H43" s="51">
+        <v>0</v>
+      </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
@@ -6857,22 +7279,28 @@
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="59">
-        <v>0</v>
-      </c>
-      <c r="E44" s="59">
-        <v>0</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="51">
+        <v>0</v>
+      </c>
+      <c r="E44" s="51">
+        <v>0</v>
+      </c>
+      <c r="F44" s="51">
+        <v>0</v>
+      </c>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="51">
+        <v>0</v>
+      </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
@@ -6881,22 +7309,28 @@
       <c r="N44" s="40"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="59">
-        <v>0</v>
-      </c>
-      <c r="E45" s="59">
-        <v>0</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="51">
+        <v>0</v>
+      </c>
+      <c r="E45" s="51">
+        <v>0</v>
+      </c>
+      <c r="F45" s="51">
+        <v>0</v>
+      </c>
+      <c r="G45" s="51">
+        <v>0</v>
+      </c>
+      <c r="H45" s="51">
+        <v>0</v>
+      </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
@@ -6905,22 +7339,28 @@
       <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="59">
-        <v>0</v>
-      </c>
-      <c r="E46" s="59">
-        <v>0</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="51">
+        <v>0</v>
+      </c>
+      <c r="E46" s="51">
+        <v>0</v>
+      </c>
+      <c r="F46" s="51">
+        <v>0</v>
+      </c>
+      <c r="G46" s="51">
+        <v>0</v>
+      </c>
+      <c r="H46" s="51">
+        <v>0</v>
+      </c>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
@@ -6929,22 +7369,28 @@
       <c r="N46" s="40"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="59">
-        <v>0</v>
-      </c>
-      <c r="E47" s="59">
-        <v>0</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="51">
+        <v>0</v>
+      </c>
+      <c r="E47" s="51">
+        <v>0</v>
+      </c>
+      <c r="F47" s="51">
+        <v>0</v>
+      </c>
+      <c r="G47" s="51">
+        <v>0</v>
+      </c>
+      <c r="H47" s="51">
+        <v>0</v>
+      </c>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
       <c r="K47" s="40"/>
@@ -6953,22 +7399,28 @@
       <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="59">
-        <v>0</v>
-      </c>
-      <c r="E48" s="59">
-        <v>0</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="51">
+        <v>0</v>
+      </c>
+      <c r="E48" s="51">
+        <v>0</v>
+      </c>
+      <c r="F48" s="51">
+        <v>0</v>
+      </c>
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="51">
+        <v>0</v>
+      </c>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
       <c r="K48" s="40"/>
@@ -6977,22 +7429,28 @@
       <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="59">
-        <v>0</v>
-      </c>
-      <c r="E49" s="59">
-        <v>0</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="51">
+        <v>0</v>
+      </c>
+      <c r="E49" s="51">
+        <v>0</v>
+      </c>
+      <c r="F49" s="51">
+        <v>0</v>
+      </c>
+      <c r="G49" s="51">
+        <v>0</v>
+      </c>
+      <c r="H49" s="51">
+        <v>0</v>
+      </c>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
@@ -7001,22 +7459,28 @@
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="59">
-        <v>0</v>
-      </c>
-      <c r="E50" s="59">
-        <v>0</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="51">
+        <v>0</v>
+      </c>
+      <c r="E50" s="51">
+        <v>0</v>
+      </c>
+      <c r="F50" s="51">
+        <v>0</v>
+      </c>
+      <c r="G50" s="51">
+        <v>0</v>
+      </c>
+      <c r="H50" s="51">
+        <v>0</v>
+      </c>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
@@ -7025,22 +7489,28 @@
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="59">
-        <v>0</v>
-      </c>
-      <c r="E51" s="59">
-        <v>0</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="51">
+        <v>0</v>
+      </c>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
       <c r="K51" s="40"/>
@@ -7049,22 +7519,28 @@
       <c r="N51" s="40"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="59">
-        <v>0</v>
-      </c>
-      <c r="E52" s="59">
-        <v>0</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="51">
+        <v>0</v>
+      </c>
+      <c r="E52" s="51">
+        <v>0</v>
+      </c>
+      <c r="F52" s="51">
+        <v>0</v>
+      </c>
+      <c r="G52" s="51">
+        <v>0</v>
+      </c>
+      <c r="H52" s="51">
+        <v>0</v>
+      </c>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
@@ -7073,22 +7549,28 @@
       <c r="N52" s="40"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="59">
-        <v>0</v>
-      </c>
-      <c r="E53" s="59">
-        <v>0</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="51">
+        <v>0</v>
+      </c>
+      <c r="E53" s="51">
+        <v>0</v>
+      </c>
+      <c r="F53" s="51">
+        <v>0</v>
+      </c>
+      <c r="G53" s="51">
+        <v>0</v>
+      </c>
+      <c r="H53" s="51">
+        <v>0</v>
+      </c>
       <c r="I53" s="40"/>
       <c r="J53" s="40"/>
       <c r="K53" s="40"/>
@@ -7097,22 +7579,28 @@
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="59">
-        <v>0</v>
-      </c>
-      <c r="E54" s="59">
-        <v>0</v>
-      </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="51">
+        <v>0</v>
+      </c>
+      <c r="E54" s="51">
+        <v>0</v>
+      </c>
+      <c r="F54" s="51">
+        <v>0</v>
+      </c>
+      <c r="G54" s="51">
+        <v>0</v>
+      </c>
+      <c r="H54" s="51">
+        <v>0</v>
+      </c>
       <c r="I54" s="40"/>
       <c r="J54" s="40"/>
       <c r="K54" s="40"/>
@@ -7121,22 +7609,28 @@
       <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="59">
-        <v>0</v>
-      </c>
-      <c r="E55" s="59">
-        <v>0</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="51">
+        <v>0</v>
+      </c>
+      <c r="E55" s="51">
+        <v>0</v>
+      </c>
+      <c r="F55" s="51">
+        <v>0</v>
+      </c>
+      <c r="G55" s="51">
+        <v>0</v>
+      </c>
+      <c r="H55" s="51">
+        <v>0</v>
+      </c>
       <c r="I55" s="40"/>
       <c r="J55" s="40"/>
       <c r="K55" s="40"/>
@@ -7145,22 +7639,28 @@
       <c r="N55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="59">
-        <v>0</v>
-      </c>
-      <c r="E56" s="59">
-        <v>0</v>
-      </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="51">
+        <v>0</v>
+      </c>
+      <c r="E56" s="51">
+        <v>0</v>
+      </c>
+      <c r="F56" s="51">
+        <v>0</v>
+      </c>
+      <c r="G56" s="51">
+        <v>0</v>
+      </c>
+      <c r="H56" s="51">
+        <v>0</v>
+      </c>
       <c r="I56" s="40"/>
       <c r="J56" s="40"/>
       <c r="K56" s="40"/>
@@ -7169,22 +7669,28 @@
       <c r="N56" s="40"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="59">
-        <v>0</v>
-      </c>
-      <c r="E57" s="59">
-        <v>0</v>
-      </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="51">
+        <v>0</v>
+      </c>
+      <c r="E57" s="51">
+        <v>0</v>
+      </c>
+      <c r="F57" s="51">
+        <v>0</v>
+      </c>
+      <c r="G57" s="51">
+        <v>0</v>
+      </c>
+      <c r="H57" s="51">
+        <v>0</v>
+      </c>
       <c r="I57" s="40"/>
       <c r="J57" s="40"/>
       <c r="K57" s="40"/>
@@ -7193,22 +7699,28 @@
       <c r="N57" s="40"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="59">
-        <v>0</v>
-      </c>
-      <c r="E58" s="59">
-        <v>0</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="51">
+        <v>0</v>
+      </c>
+      <c r="E58" s="51">
+        <v>0</v>
+      </c>
+      <c r="F58" s="51">
+        <v>0</v>
+      </c>
+      <c r="G58" s="51">
+        <v>0</v>
+      </c>
+      <c r="H58" s="51">
+        <v>0</v>
+      </c>
       <c r="I58" s="40"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
@@ -7217,22 +7729,28 @@
       <c r="N58" s="40"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="87">
-        <v>0</v>
-      </c>
-      <c r="E59" s="87">
-        <v>0</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="51">
+        <v>0</v>
+      </c>
+      <c r="E59" s="51">
+        <v>0</v>
+      </c>
+      <c r="F59" s="51">
+        <v>0</v>
+      </c>
+      <c r="G59" s="51">
+        <v>0</v>
+      </c>
+      <c r="H59" s="51">
+        <v>0</v>
+      </c>
       <c r="I59" s="40"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
@@ -7241,13 +7759,28 @@
       <c r="N59" s="40"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="71">
+        <v>0</v>
+      </c>
+      <c r="E60" s="71">
+        <v>0</v>
+      </c>
+      <c r="F60" s="51">
+        <v>0</v>
+      </c>
+      <c r="G60" s="51">
+        <v>0</v>
+      </c>
+      <c r="H60" s="51">
+        <v>0</v>
+      </c>
       <c r="I60" s="40"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
@@ -7256,11 +7789,10 @@
       <c r="N60" s="40"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="54"/>
       <c r="C61" s="40"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="66"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -7272,11 +7804,11 @@
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="39"/>
       <c r="C62" s="40"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="66"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -7288,11 +7820,11 @@
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="39"/>
       <c r="C63" s="40"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="66"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -7304,11 +7836,11 @@
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="39"/>
       <c r="C64" s="40"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="66"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -7320,11 +7852,11 @@
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="39"/>
       <c r="C65" s="40"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -7336,11 +7868,11 @@
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="39"/>
       <c r="C66" s="40"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="66"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -7352,11 +7884,11 @@
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="39"/>
       <c r="C67" s="40"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="66"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -7368,11 +7900,11 @@
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="39"/>
       <c r="C68" s="40"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="66"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -7384,11 +7916,11 @@
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="39"/>
       <c r="C69" s="40"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="66"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
@@ -7400,11 +7932,11 @@
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="39"/>
       <c r="C70" s="40"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="66"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -7416,11 +7948,11 @@
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="39"/>
       <c r="C71" s="40"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="66"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -7432,11 +7964,11 @@
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="39"/>
       <c r="C72" s="40"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="66"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="57"/>
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -7448,11 +7980,11 @@
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="39"/>
       <c r="C73" s="40"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="66"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -7464,11 +7996,11 @@
       <c r="N73" s="40"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="39"/>
       <c r="C74" s="40"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="66"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="40"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
@@ -7480,11 +8012,11 @@
       <c r="N74" s="40"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="66"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -7496,11 +8028,11 @@
       <c r="N75" s="40"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="66"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="40"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
@@ -7512,11 +8044,11 @@
       <c r="N76" s="40"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="39"/>
       <c r="C77" s="40"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="66"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
@@ -7528,11 +8060,11 @@
       <c r="N77" s="40"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="39"/>
       <c r="C78" s="40"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="66"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="40"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -7544,11 +8076,11 @@
       <c r="N78" s="40"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="39"/>
       <c r="C79" s="40"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="66"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="40"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -7560,11 +8092,11 @@
       <c r="N79" s="40"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="39"/>
       <c r="C80" s="40"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="66"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="40"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -7576,11 +8108,11 @@
       <c r="N80" s="40"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="39"/>
       <c r="C81" s="40"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="66"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -7592,11 +8124,11 @@
       <c r="N81" s="40"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="39"/>
       <c r="C82" s="40"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="66"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
@@ -7608,11 +8140,11 @@
       <c r="N82" s="40"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="39"/>
       <c r="C83" s="40"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="66"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
@@ -7624,11 +8156,11 @@
       <c r="N83" s="40"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="39"/>
       <c r="C84" s="40"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="66"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="57"/>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
@@ -7640,11 +8172,11 @@
       <c r="N84" s="40"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="39"/>
       <c r="C85" s="40"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="66"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
@@ -7656,11 +8188,11 @@
       <c r="N85" s="40"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="39"/>
       <c r="C86" s="40"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="66"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -7672,11 +8204,11 @@
       <c r="N86" s="40"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="39"/>
       <c r="C87" s="40"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="66"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
@@ -7688,11 +8220,11 @@
       <c r="N87" s="40"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="39"/>
       <c r="C88" s="40"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="66"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
@@ -7704,11 +8236,11 @@
       <c r="N88" s="40"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="39"/>
       <c r="C89" s="40"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="66"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
@@ -7720,11 +8252,11 @@
       <c r="N89" s="40"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="39"/>
       <c r="C90" s="40"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="66"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
@@ -7736,11 +8268,11 @@
       <c r="N90" s="40"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="39"/>
       <c r="C91" s="40"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="66"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
@@ -7752,11 +8284,11 @@
       <c r="N91" s="40"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="39"/>
       <c r="C92" s="40"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="66"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -7768,11 +8300,11 @@
       <c r="N92" s="40"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="39"/>
       <c r="C93" s="40"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="66"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="57"/>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
@@ -7784,11 +8316,11 @@
       <c r="N93" s="40"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="39"/>
       <c r="C94" s="40"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="66"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="57"/>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
@@ -7800,11 +8332,11 @@
       <c r="N94" s="40"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="39"/>
       <c r="C95" s="40"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="66"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
@@ -7816,11 +8348,11 @@
       <c r="N95" s="40"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="39"/>
       <c r="C96" s="40"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="66"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="57"/>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -7832,11 +8364,11 @@
       <c r="N96" s="40"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="39"/>
       <c r="C97" s="40"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="66"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
@@ -7847,9 +8379,26 @@
       <c r="M97" s="40"/>
       <c r="N97" s="40"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="56"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
